--- a/2025-03-03_o3-mini_feedback_sheets/overall_spec/Esophageal stricture_spec_overall.xlsx
+++ b/2025-03-03_o3-mini_feedback_sheets/overall_spec/Esophageal stricture_spec_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Difficulty swallowing solids is present.</t>
+          <t>Difficulty swallowing liquids</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dysphagia for solids is a hallmark of mechanical obstruction in the esophagus, which is strongly seen in esophageal stricture; it is typically more specific than dysphagia for liquids.</t>
+          <t>Esophageal strictures typically cause dysphagia for both solids and liquids from a mechanical narrowing, and difficulty swallowing liquids is particularly supportive when combined with solid dysphagia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Non-progressive dysphagia: liquids throughout difficulty swallowing is present.</t>
+          <t>Raynauds phenomenon reported</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Esophageal stricture typically produces a progressively worsening dysphagia; a non-progressive pattern is less characteristic of a fixed mechanical obstruction.</t>
+          <t>Raynaud's phenomenon is more associated with connective tissue diseases, such as systemic sclerosis, which may cause esophageal dysmotility rather than a simple stricture from reflux.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Difficulty swallowing liquids is present.</t>
+          <t>Difficulty swallowing solids</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>The presence of dysphagia for liquids in addition to solids further supports a significant mechanical narrowing consistent with an esophageal stricture.</t>
+          <t>The presence of both liquid and solid dysphagia suggests a fixed obstructive process like an esophageal stricture rather than a motility disorder.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Raynauds phenomenon reported is present.</t>
+          <t>Telangiectasias reported</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Raynaud's phenomenon is more commonly associated with connective tissue disorders such as scleroderma, which generally cause esophageal dysmotility rather than a discrete stricture.</t>
+          <t>Telangiectasias are a finding in conditions like CREST syndrome (limited scleroderma), pointing toward a systemic process rather than an isolated esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Long-standing heartburn (duration of years) is present and Long-standing reflux (duration of years) is present.</t>
+          <t>Long-standing heartburn (duration of years)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chronic acid reflux and heartburn can lead to inflammation and scarring of the esophagus, predisposing to the development of strictures.</t>
+          <t>Chronic gastroesophageal reflux leading to prolonged heartburn can cause scarring and narrowing of the esophagus, which is the typical mechanism underlying esophageal strictures.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Telangiectasias reported is present.</t>
+          <t>Hand pain out of proportion to other joints is present</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Telangiectasias are also linked with connective tissue diseases like scleroderma, suggesting a systemic process affecting the esophagus through dysmotility rather than a localized stricture formation.</t>
+          <t>Disproportionate hand pain raises suspicion for systemic or connective tissue disorders, suggesting an etiology other than a localized esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Antacids no longer providing relief is present.</t>
+          <t>Antacids no longer providing relief</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A loss of response to antacids over time suggests a progression from simple reflux to a more complicated anatomy, such as stricture formation, which no longer responds to conservative therapy.</t>
+          <t>The lack of response to antacids after years of reflux suggests progression to a structural lesion such as an esophageal stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Hand pain out of proportion to other joints is present.</t>
+          <t>Pain relieved with regurgitation is present</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>This finding can be a manifestation of systemic disorders such as scleroderma or mixed connective tissue disease, which typically lead to esophageal motility issues rather than a focal narrowing (stricture).</t>
+          <t>Although regurgitation can be seen in reflux-related conditions, relief with regurgitation may point more to esophageal motility issues rather than a fixed structural narrowing like a stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Onset of chest pain associated with eating is present.</t>
+          <t>Pain when swallowing (odynophagia)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Chest pain triggered by eating indicates that esophageal passage is compromised during bolus transit, supporting the presence of a structural abnormality like a stricture.</t>
+          <t>Odynophagia, or pain on swallowing, supports mucosal injury and inflammation often seen in an esophageal stricture secondary to chronic reflux damage.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Hoarse voice reported is absent.</t>
+          <t>Pain reproducible with arm movements is present</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>A hoarse voice can sometimes be seen in cases of laryngopharyngeal reflux that may accompany severe reflux-induced damage; its absence may argue against reflux complications that lead to stricture in some cases.</t>
+          <t>Reproducibility of pain with arm movement suggests a musculoskeletal origin rather than pain solely due to esophageal structural abnormality, making esophageal stricture less likely as the sole cause.</t>
         </is>
       </c>
     </row>
@@ -613,12 +613,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Female is present</t>
+          <t>takes amlodipine</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>In some epidemiologic studies, certain types of esophageal stricture may occur more frequently or be influenced by hormonal and anatomical features in females, making female gender a potential supporting demographic factor.</t>
+          <t>Amlodipine, a calcium channel blocker, can decrease lower esophageal sphincter tone and predispose to gastroesophageal reflux which may lead to esophageal stricture formation over time.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,19 +628,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol use is a known irritant to the esophageal mucosa and can contribute to caustic injury or reflux issues; its absence argues against esophageal injury leading to stricture.</t>
+          <t>Alcohol use can contribute to mucosal damage and aggravate reflux; its absence weakens the likelihood of a severe reflux that can lead to esophageal stricture.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Middle age is present</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Esophageal strictures, especially those related to chronic reflux injury, tend to occur in middle-aged individuals. The presence of a middle-aged demographic supports the possibility of cumulative esophageal injury leading to stricture formation.</t>
+          <t>Being female in middle age is noted in some epidemiologic studies to have some predisposition for reflux-related complications that can lead to strictures.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -650,19 +650,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nicotine has been implicated in lower esophageal sphincter dysfunction and esophageal mucosal injury; the absence of nicotine dependence reduces the likelihood of reflux-induced stricture formation.</t>
+          <t>Nicotine can impair esophageal motility and increase reflux; the absence of nicotine dependence reduces the risk of esophageal mucosal injury associated with stricture formation.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Takes amlodipine is present</t>
+          <t>middle age</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlodipine, a calcium channel blocker, can sometimes be associated with gastrointestinal motility effects or lower esophageal sphincter tone alterations, which may indirectly contribute to reflux-related injury and stricture formation.</t>
+          <t>Esophageal strictures, particularly those secondary to chronic reflux, tend to be more common in middle-aged patients.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -672,51 +672,51 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Radiation to the neck area is a well-known risk factor for developing esophageal stricture due to tissue damage. Its absence is strong evidence against a radiation-induced stricture.</t>
+          <t>Radiation therapy to the neck region is a recognized risk factor for esophageal stricture; being absent excludes this major iatrogenic cause.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of recent medication changes is absent</t>
+          <t>recent medication changes is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The stability in medication regimen (with no recent changes) can suggest that the symptoms have a chronic, structural basis rather than an acute drug-induced cause, which may correlate with conditions like esophageal stricture.</t>
+          <t>An absence of recent changes implies a prolonged exposure to current medications (such as amlodipine), allowing for chronic effects (e.g., lower esophageal sphincter relaxation) potentially contributing to stricture development.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Previously diagnosed Coronary Artery Disease is absent</t>
+          <t>obesity is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Coronary artery disease is often accompanied by a range of systemic atherosclerotic risk factors that can also predispose to microvascular compromise and healing issues. The absence of this further lowers the likelihood of complex stricture formation.</t>
+          <t>Obesity is a well‐established risk factor for gastroesophageal reflux and subsequent stricture formation; its absence makes reflux-induced injury less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lack of other confounding systemic conditions</t>
+          <t>lack of other complicating comorbidities (e.g., diabetes, obesity)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of many systemic risk factors (such as diabetes, obesity, and other cardiovascular conditions) narrows the clinical picture, thereby indirectly supporting the possibility that the esophageal symptoms might be due to a localized process like a stricture.</t>
+          <t>The absence of multiple metabolic or cardiovascular comorbidities may isolate esophageal reflux as the primary pathology, thereby spotlighting the potential influence of factors like amlodipine use in stricture development.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diagnosed hypertension is absent</t>
+          <t>type 2 diabetes is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hypertension can be associated with other systemic disorders that might contribute to esophageal dysfunction. Its absence decreases the likelihood of concurrent conditions predisposing to esophageal stricture.</t>
+          <t>Type 2 diabetes may predispose to gastroparesis and reflux-related complications; its absence diminishes the secondary risk of esophageal stricture from reflux events.</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prior tobacco use can contribute to chronic inflammation and predispose individuals to gastroesophageal reflux, which can lead to esophageal stricture over time.</t>
+          <t>Prior tobacco use has been associated with chronic inflammatory changes and predisposition to conditions like GERD, which can lead to esophageal stricture formation over time.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Alcohol can aggravate gastroesophageal reflux and mucosal injury; its absence reduces one of the potential aggravating factors for esophageal stricture formation.</t>
+          <t>The absence of alcohol use reduces the risk of corrosive injuries to the esophagus, which can lead to strictures, thereby arguing against an esophageal stricture of corrosive etiology.</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Social stress has been shown to exacerbate reflux symptoms and may indirectly contribute to mucosal damage and stricture formation.</t>
+          <t>Social stress may worsen reflux symptoms by influencing lifestyle and physiological stress responses, indirectly increasing the risk for esophageal injury and subsequent stricture.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>The absence of current tobacco use lessens ongoing exposure to irritants that could promote reflux and further damage to the esophageal lining, thereby arguing against ongoing stricture formation.</t>
+          <t>While prior tobacco use is noted, the absence of current tobacco use minimizes ongoing exposure that could exacerbate reflux or direct mucosal injury, thus lowering the risk for developing an esophageal stricture.</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Although not a direct risk factor, a family history of cardiovascular disease may reflect a general familial predisposition to lifestyle and metabolic factors that could also influence reflux severity, thereby contributing indirectly to stricture risk.</t>
+          <t>A family history of myocardial infarction may indicate shared lifestyle or metabolic factors (such as obesity and poor diet) that are also associated with GERD, a common precursor to esophageal stricture.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -823,41 +823,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A family history of cancer, particularly esophageal cancer, could be a marker for genetic predispositions toward mucosal abnormalities; its absence argues against esophageal structural changes including strictures related to neoplastic processes.</t>
+          <t>Absence of a family history of cancer decreases the likelihood of esophageal malignancies that can lead to secondary stricture formation.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Absence of current tobacco use is noted but prior use is more relevant</t>
+          <t>Family history of Rheumatoid Arthritis is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While current tobacco use is absent, the history of prior tobacco use remains significant as its past impact on the esophageal mucosa may have lasting consequences that favor stricture formation.</t>
+          <t>The absence of a family history of rheumatoid arthritis helps narrow the differential by reducing the likelihood of autoimmune-related esophageal dysmotility, indirectly supporting a GERD-mediated stricture process.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Family history of Rheumatoid Arthritis is absent</t>
+          <t>Recent travel is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>An absence of rheumatoid arthritis in the family reduces the likelihood of systemic inflammatory processes that may contribute secondarily to esophageal dysmotility and subsequent stricture formation.</t>
+          <t>The absence of recent travel makes it less likely that uncommon, travel-associated infectious or environmental exposures contributed to esophageal injury, thereby arguing against a stricture of such origin.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Absence of alcohol use, though typically a risk for malignancy, does not negate reflux-induced stricture</t>
+          <t>Gestational complications with prior pregnancy is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Even in the absence of alcohol use, other contributing factors such as prior tobacco use and stress may still lead to reflux and subsequent stricture formation.</t>
+          <t>While not directly related to esophageal strictures, the absence of gestational complications avoids confounding systemic inflammatory states that might mimic or complicate esophageal symptoms, subtly supporting a more classic, reflux-related stricture etiology.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -867,7 +867,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Some recent medical procedures (such as endoscopic interventions) can alter esophageal integrity and lead to stricture formation; its absence reduces this iatrogenic risk for esophageal stricture.</t>
+          <t>Without a recent medical procedure, there is a decreased risk of iatrogenic injury (such as post-endoscopy scarring) that could lead to esophageal stricture formation.</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weight loss is a common consequence of progressive esophageal stricture causing dysphagia and reduced caloric intake.</t>
+          <t>Weight loss is common in patients with esophageal stricture because chronic dysphagia can lead to decreased food intake and nutritional deficiency, making it a strong supportive finding.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>In conditions like scleroderma that predispose to esophageal dysmotility and stricture formation, the absence of Raynaud’s phenomenon argues against that systemic etiology.</t>
+          <t>Raynaud's phenomenon is often encountered in connective tissue disorders that can be associated with esophageal dysmotility and subsequent stricture formation. Its absence is strong evidence against a stricture secondary to such systemic disease.</t>
         </is>
       </c>
     </row>
@@ -942,83 +942,83 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Telangiectasias can be seen in conditions like scleroderma which may lead to secondary esophageal dysmotility and stricture formation.</t>
+          <t>Telangiectasias may be seen in conditions that impair the esophagus (such as connective tissue disorders) and can be an associated vascular finding in a subset of patients with esophageal complications.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Hand thickening observed is absent</t>
+          <t>Hoarse voice observed is absent</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hand thickening is a clinical feature of scleroderma, a common cause of esophageal involvement leading to strictures; its absence makes a scleroderma-related stricture less likely.</t>
+          <t>A hoarse voice might be expected if an esophageal stricture had progressed to impinge on adjacent structures or if severe gastroesophageal reflux was present; its absence argues against an advanced or complicated stricture.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Hoarse voice observed is absent</t>
+          <t>Cough observed is absent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of hoarseness, which might suggest laryngeal involvement in alternative pathologies, can indirectly support a primary esophageal process like stricture.</t>
+          <t>While cough can be seen in other respiratory or reflux-associated disorders, its absence may favor a pathology isolated to the esophageal lumen such as a structural stricture rather than an inflammatory process affecting the respiratory tract.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Finger ulcers observed is absent</t>
+          <t>Epigastric pain on palpation is absent</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Finger ulcers are associated with connective tissue disorders like scleroderma; not finding these reduces the likelihood of a scleroderma-linked esophageal stricture.</t>
+          <t>Epigastric pain is a common finding in gastroesophageal reflux disease, which is a frequent precursor to peptic strictures. Its absence makes a reflux-related stricture less likely.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cough observed is absent</t>
+          <t>Obesity by vital signs is absent</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A cough is often related to reflux-induced irritation; its absence suggests that symptoms may be attributable to mechanical obstruction such as a stricture rather than ongoing reflux.</t>
+          <t>The absence of obesity supports the possibility of weight loss driven by an esophageal stricture rather than confounding metabolic issues, reinforcing the interpretation of weight loss as significant.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Weakness on exam is absent</t>
+          <t>Hand thickening observed is absent</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Generalized weakness might be seen in systemic disorders that can cause esophageal strictures via neuromuscular involvement; its absence provides evidence against such systemic involvement.</t>
+          <t>Hand thickening is a hallmark of systemic sclerosis, a condition that can lead to esophageal involvement including dysmotility and stricture. Its absence is evidence against a connective tissue disease causing the stricture.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Epigastric pain on palpation is absent</t>
+          <t>High blood pressure when checked is absent</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The absence of epigastric pain, commonly seen in active reflux esophagitis, can favor a mechanical obstruction (esophageal stricture) that is less inflammatory in nature.</t>
+          <t>The absence of high blood pressure helps reduce the likelihood of a vascular or metabolic syndrome that might complicate the clinical picture, indirectly supporting a primary esophageal structural abnormality.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Joint swelling observed is absent</t>
+          <t>Finger ulcers observed is absent</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Joint swelling can be indicative of systemic rheumatologic conditions that also affect the esophagus; its absence argues against an underlying inflammatory process leading to stricture.</t>
+          <t>Finger ulcers may be seen in systemic conditions such as scleroderma that can also cause esophageal strictures. The absence of such findings lowers the probability of a systemic disease process contributing to esophageal damage.</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Although hyperlipidemia is not directly related to esophageal stricture, its presence may be seen in patients with metabolic syndrome, a condition occasionally associated with reflux disease, which in turn can lead to peptic strictures. Thus, its presence is the only positive laboratory signal in this set.</t>
+          <t>Although hyperlipidemia is not a classical risk factor for esophageal strictures, its presence could be indirectly linked to a profile predisposing to reflux disease, which over time might lead to stricture formation.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Esophageal strictures due to significant luminal narrowing may predispose to food retention and subsequent aspiration; the absence of aspiration on MBS argues against a severe stricture.</t>
+          <t>Absence of aspiration on a barium swallow study is strong evidence against significant esophageal dysfunction; advanced esophageal strictures typically lead to dysmotility and aspiration risk.</t>
         </is>
       </c>
     </row>
@@ -1093,7 +1093,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A negative ANA makes autoimmune-mediated esophageal damage (such as seen in connective tissue diseases) less likely, indirectly supporting a non-autoimmune cause of esophageal stricture such as a peptic stricture.</t>
+          <t>The absence of a strong positive ANA reduces the likelihood of an autoimmune etiology (such as connective tissue diseases) that could mimic other esophageal conditions, indirectly keeping the focus on mechanical processes like strictures.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>If reflux-induced injury from an esophageal stricture were severe, one might expect pulmonary changes or aspiration-related lung injury; the absence of ILD on CT makes such complications less likely.</t>
+          <t>The absence of interstitial lung disease on CT makes it less likely that there is a systemic process affecting the esophagus indirectly, which might present with stricture-like findings, arguing against complex disease manifestations.</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The absence of aspiration on a Modified Barium Swallow reduces the likelihood of motility disorders, leaving structural abnormalities such as stricture as a more probable cause in patients with dysphagia.</t>
+          <t>A barium swallow study (MBS) not demonstrating aspiration suggests that if a stricture were present, it might still be in an early or less severe form not yet causing significant functional impairment, which can be seen in esophageal strictures.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A widened mediastinum can sometimes be seen in severe or long-standing cases that cause secondary mediastinal changes; its absence diminishes the likelihood of advanced esophageal pathology.</t>
+          <t>A normal chest X-ray without mediastinal widening argues against extrinsic compression or invasive pathology that could be confused with an intrinsic esophageal stricture, thereby reducing the overall likelihood of significant pathology.</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>The absence of interstitial lung disease on CT excludes secondary pulmonary complications from severe reflux or connective tissue disorders, thereby indirectly favoring esophageal stricture from localized pathology.</t>
+          <t>The absence of interstitial lung disease on CT rules out certain systemic diseases that might cause dysphagia via other mechanisms, thereby indirectly maintaining the possibility of a primary esophageal stricture.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>In cases of autoimmune-related esophageal injury leading to stricture, a strong positive ANA might be expected; its absence argues against this specific etiology and, by extension, favors alternate diagnoses over an autoimmune stricture.</t>
+          <t>The absence of a strong positive antinuclear antibody result suggests a low probability of autoimmune disorders that might secondarily cause esophageal complications, indirectly working against a complicated esophageal process.</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A normal chest X-ray without a widened mediastinum rules out large mediastinal masses or other compressive causes, which indirectly supports a localized process like an esophageal stricture.</t>
+          <t>The normal chest X-ray with no widened mediastinum helps exclude mediastinal pathology that could cause extrinsic compression rather than an intrinsic esophageal stricture, keeping the diagnostic consideration focused on intrinsic esophageal abnormality.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hyperlipidemia is unrelated to the structural changes seen in esophageal strictures and suggests metabolic rather than mechanical pathology, thereby providing evidence against a primary esophageal stricture.</t>
+          <t>Hyperlipidemia is not typically associated with the development of esophageal strictures; its presence does not support the diagnosis and may reflect a metabolic condition unrelated to structural esophageal changes.</t>
         </is>
       </c>
     </row>
